--- a/files/reports/2021-10-24/resources-report.xlsx
+++ b/files/reports/2021-10-24/resources-report.xlsx
@@ -668,13 +668,13 @@
         <v>643</v>
       </c>
       <c r="F2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H2" s="1">
-        <v>0.3157</v>
+        <v>0.3204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1326,13 +1326,13 @@
         <v>444</v>
       </c>
       <c r="F28">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G28">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H28" s="1">
-        <v>0.259</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1404,13 +1404,13 @@
         <v>696</v>
       </c>
       <c r="F31">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G31">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H31" s="1">
-        <v>0.306</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2062,13 +2062,13 @@
         <v>3135</v>
       </c>
       <c r="F57">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="G57">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="H57" s="1">
-        <v>0.7464</v>
+        <v>0.7483</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2088,13 +2088,13 @@
         <v>10638</v>
       </c>
       <c r="F58">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="G58">
-        <v>9677</v>
+        <v>9671</v>
       </c>
       <c r="H58" s="1">
-        <v>0.09030000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8">
